--- a/Teile/Teileliste_2012_09_30_smd.xlsx
+++ b/Teile/Teileliste_2012_09_30_smd.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="466">
   <si>
     <t>Anzahl</t>
   </si>
@@ -122,7 +122,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="true"/>
         <color rgb="00000000"/>
@@ -225,7 +224,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="true"/>
         <color rgb="00000000"/>
@@ -238,7 +236,7 @@
     <t>http://de.mouser.com/ProductDetail/Bourns/CR0805-FX-3900GLF/?qs=sGAEpiMZZMvdGkrng054t%2fh5BnJxeWSzoTjmoyUMjv8%3d</t>
   </si>
   <si>
-    <t>R_OIL , R_B_LED_0</t>
+    <t>R_OIL , R_R_LED_0</t>
   </si>
   <si>
     <r>
@@ -247,7 +245,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="true"/>
         <color rgb="00000000"/>
@@ -269,7 +266,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="true"/>
         <color rgb="00000000"/>
@@ -291,7 +287,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="true"/>
         <color rgb="00000000"/>
@@ -370,7 +365,7 @@
     <t>http://de.mouser.com/ProductDetail/Cree-Inc/CLM4B-BKW-CTBVA363/?qs=%2fha2pyFadujhtp4UCZtpFAVl9dvdKIYAIlGMD3Wh1rxpSVlKab%252bRZLrfJTTX3SXo</t>
   </si>
   <si>
-    <t>R_OIL,LED_Zeiger</t>
+    <t>U$11,U$22</t>
   </si>
   <si>
     <t>Red 1600mcd CLM4B-RKW-CWAXBAA3</t>
@@ -472,10 +467,10 @@
     <t>T1, T2, T3, T6, T7, T8, T9, T10, T11, T12, T13</t>
   </si>
   <si>
-    <t>2N7002BKW,115</t>
-  </si>
-  <si>
-    <t>http://de.mouser.com/ProductDetail/NXP-Semiconductors/2N7002BKW115/?qs=sGAEpiMZZMv4eh0jmGe02ysUrjeQFOta5JGI1XFmH2Y%3d</t>
+    <t>2N7002BKW,215</t>
+  </si>
+  <si>
+    <t>http://de.mouser.com/ProductDetail/NXP/2N7002BK215/?qs=%2fha2pyFadugBXNF%2fERTTM9tCURIAGb1JUI%2fRlYkCxzU%252bUPBOvv7Jwg%3d%3d</t>
   </si>
   <si>
     <t>JP1,JP2</t>
@@ -601,7 +596,7 @@
     <t>TempSensor</t>
   </si>
   <si>
-    <t>http://de.mouser.com/ProductDetail/Texas-Instruments/TMP102AIDRLR/?qs=sGAEpiMZZMucenltShoSnvcH4kNLTJOgHTHoYSKuTBo%3d</t>
+    <t>http://de.mouser.com/ProductDetail/NXP-Semiconductors/SE95D118/?qs=sGAEpiMZZMucenltShoSngZctQqH05qEhckxd75tDnM%3d</t>
   </si>
   <si>
     <t>http://de.mouser.com/ProductDetail/RAF-Electronic-Hardware/M0503-25-AL/?qs=dwkm%252bGAHGA1bK4a1zAKzGvwoOHPggjsN0aOsH4qSicg%3d</t>
@@ -662,9 +657,6 @@
   </si>
   <si>
     <t>771-2N7002BK215</t>
-  </si>
-  <si>
-    <t>http://de.mouser.com/ProductDetail/NXP/2N7002BK215/?qs=%2fha2pyFadugBXNF%2fERTTM9tCURIAGb1JUI%2fRlYkCxzU%252bUPBOvv7Jwg%3d%3d</t>
   </si>
   <si>
     <t>T_P_BRIDGE, T_P_BRIDGE1</t>
@@ -1498,7 +1490,6 @@
   <fonts count="6">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="11"/>
@@ -1520,7 +1511,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00FFFFFF"/>
@@ -1528,7 +1518,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00000000"/>
@@ -1550,8 +1539,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00DC2300"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1562,8 +1551,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00DC2300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1622,13 +1611,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0"/>
@@ -1712,16 +1699,16 @@
   </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="C78" activeCellId="0" pane="topLeft" sqref="C78"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
+      <selection activeCell="B44" activeCellId="0" pane="topLeft" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.69803921568628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="129.41568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="130.411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -1764,7 +1751,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1778,7 +1765,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1804,7 +1791,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1832,13 +1819,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1854,49 +1841,49 @@
       <c r="D13" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="7" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="7" t="n">
         <v>92</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="7" t="n">
         <v>110</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1910,7 +1897,7 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1918,13 +1905,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="7" t="n">
         <v>220</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1932,13 +1919,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1952,7 +1939,7 @@
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1966,7 +1953,7 @@
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1974,13 +1961,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1988,13 +1975,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2008,7 +1995,7 @@
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2016,13 +2003,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2030,25 +2017,25 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="7" t="n">
         <v>300</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2056,13 +2043,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="7" t="n">
         <v>604</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2070,13 +2057,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2084,13 +2071,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2098,13 +2085,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2112,13 +2099,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2126,13 +2113,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2140,13 +2127,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2162,7 +2149,7 @@
       <c r="D38" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2176,7 +2163,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2204,7 +2191,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2218,7 +2205,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2235,7 +2222,7 @@
       <c r="A44" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2246,7 +2233,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="B45" s="5"/>
@@ -2258,7 +2245,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2280,7 +2267,7 @@
       <c r="D48" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="49">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2308,7 +2295,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51">
-      <c r="A51" s="6" t="n">
+      <c r="A51" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2385,28 +2372,28 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="58">
       <c r="A58" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
-      <c r="A59" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="59">
+      <c r="A59" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -2423,18 +2410,18 @@
       <c r="C60" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
-      <c r="A61" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="61">
+      <c r="A61" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -2442,7 +2429,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="62">
-      <c r="A62" s="6" t="n">
+      <c r="A62" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2456,7 +2443,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
-      <c r="A63" s="6" t="n">
+      <c r="A63" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2470,13 +2457,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="64">
-      <c r="A64" s="6" t="n">
+      <c r="A64" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -2484,7 +2471,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
-      <c r="A65" s="6" t="n">
+      <c r="A65" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2498,7 +2485,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
-      <c r="A66" s="6" t="n">
+      <c r="A66" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2509,28 +2496,28 @@
       </c>
       <c r="D66" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
-      <c r="A67" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
+      <c r="A67" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
-      <c r="A68" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
+      <c r="A68" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -2538,13 +2525,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
-      <c r="A69" s="6" t="n">
+      <c r="A69" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -2552,19 +2539,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="70">
-      <c r="A70" s="6" t="n">
+      <c r="A70" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
-      <c r="A71" s="6" t="n">
+      <c r="A71" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -2578,7 +2565,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
-      <c r="A72" s="6" t="n">
+      <c r="A72" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -2591,14 +2578,14 @@
         <v>157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
-      <c r="A73" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="73">
+      <c r="A73" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2620,19 +2607,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
-      <c r="A75" s="6" t="n">
+      <c r="A75" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="76">
-      <c r="A76" s="6" t="n">
+      <c r="A76" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -2646,7 +2633,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="77">
-      <c r="A77" s="6" t="n">
+      <c r="A77" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2660,7 +2647,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="78">
-      <c r="A78" s="6" t="n">
+      <c r="A78" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -2669,16 +2656,16 @@
       <c r="C78" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="79">
-      <c r="A79" s="6" t="n">
+      <c r="A79" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2686,7 +2673,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="80">
-      <c r="A80" s="6" t="n">
+      <c r="A80" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -2700,7 +2687,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
-      <c r="A81" s="6" t="n">
+      <c r="A81" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -2714,21 +2701,21 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="82">
-      <c r="A82" s="6" t="n">
+      <c r="A82" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
-      <c r="A83" s="6" t="n">
+      <c r="A83" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="5"/>
@@ -2742,7 +2729,7 @@
       <c r="D85" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="86">
-      <c r="A86" s="6" t="n">
+      <c r="A86" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -2756,7 +2743,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="87">
-      <c r="A87" s="6" t="n">
+      <c r="A87" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -2775,7 +2762,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="90">
-      <c r="A90" s="6" t="n">
+      <c r="A90" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -2799,7 +2786,7 @@
         <v>192</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
@@ -2807,13 +2794,13 @@
         <v>2</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2842,13 +2829,13 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.0745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -2859,7 +2846,7 @@
         <v>13.65</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>74.94</v>
@@ -2867,7 +2854,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>49.75</v>
@@ -2875,7 +2862,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11.54</v>
@@ -2899,41 +2886,40 @@
   </sheetPr>
   <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.44313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.56470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.0823529411765"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.69803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="34" min="16" style="0" width="4.89803921568628"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50980392156863"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.9921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="10.9529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7803921568627"/>
+    <col collapsed="false" hidden="false" max="34" min="16" style="0" width="4.93725490196078"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.05490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1" s="10">
       <c r="A1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
@@ -2941,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
@@ -2958,31 +2944,31 @@
         <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
@@ -2990,13 +2976,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
@@ -3007,7 +2993,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>47</v>
@@ -3018,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>73</v>
@@ -3032,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
@@ -3046,10 +3032,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>76</v>
@@ -3063,7 +3049,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -3074,13 +3060,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
@@ -3091,22 +3077,22 @@
         <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
@@ -3114,19 +3100,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
@@ -3134,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>67</v>
@@ -3148,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
@@ -3162,19 +3148,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
@@ -3182,46 +3168,46 @@
         <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
@@ -3229,28 +3215,28 @@
         <v>6</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
@@ -3258,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
@@ -3272,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>61</v>
@@ -3289,19 +3275,19 @@
         <v>51</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
@@ -3312,31 +3298,31 @@
         <v>23</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
@@ -3355,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>275</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>16</v>
@@ -3369,13 +3355,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
@@ -3383,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>8</v>
@@ -3397,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
@@ -3411,16 +3397,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
@@ -3431,106 +3417,106 @@
         <v>6</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="L32" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="M32" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="N32" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="O32" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="P32" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="Q32" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="R32" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="R32" s="0" t="s">
+      <c r="S32" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="T32" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="U32" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="V32" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="W32" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="W32" s="0" t="s">
+      <c r="X32" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="X32" s="0" t="s">
+      <c r="Y32" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="Y32" s="0" t="s">
+      <c r="Z32" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="Z32" s="0" t="s">
+      <c r="AA32" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="AA32" s="0" t="s">
+      <c r="AB32" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="AB32" s="0" t="s">
+      <c r="AC32" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="AC32" s="0" t="s">
+      <c r="AD32" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="AD32" s="0" t="s">
+      <c r="AE32" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="AE32" s="0" t="s">
+      <c r="AF32" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="AF32" s="0" t="s">
+      <c r="AG32" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="AG32" s="0" t="s">
+      <c r="AH32" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="AH32" s="0" t="s">
+      <c r="AI32" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="AI32" s="0" t="s">
+      <c r="AJ32" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="AJ32" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
@@ -3538,22 +3524,22 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="F34" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="G34" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37">
@@ -3561,37 +3547,37 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="I37" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="J37" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="L37" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
@@ -3605,7 +3591,7 @@
         <v>122</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
@@ -3613,19 +3599,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="F39" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
@@ -3636,10 +3622,10 @@
         <v>104</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
@@ -3650,10 +3636,10 @@
         <v>119</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46">
@@ -3661,16 +3647,16 @@
         <v>3</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="E46" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
@@ -3678,16 +3664,16 @@
         <v>3</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="D47" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="E47" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
@@ -3695,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>167</v>
@@ -3706,13 +3692,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="D49" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="50">
@@ -3720,22 +3706,22 @@
         <v>4</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="G50" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51">
@@ -3743,22 +3729,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52">
@@ -3769,19 +3755,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="53">
@@ -3789,13 +3775,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>181</v>
@@ -3806,16 +3792,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="55">
@@ -3823,13 +3809,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="56">
@@ -3840,13 +3826,13 @@
         <v>110</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="E56" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="57">
@@ -3857,10 +3843,10 @@
         <v>107</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="58">
@@ -3868,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>164</v>
@@ -3885,7 +3871,7 @@
         <v>185</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>184</v>
@@ -3896,13 +3882,13 @@
         <v>1</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="61">
@@ -3910,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>22</v>
@@ -3924,13 +3910,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
@@ -3938,22 +3924,22 @@
         <v>1</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="D63" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="E63" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="F63" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="64">
@@ -3961,16 +3947,16 @@
         <v>2</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="E64" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
@@ -3978,13 +3964,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
@@ -3992,19 +3978,19 @@
         <v>2</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>116</v>
       </c>
       <c r="D67" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="F67" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
@@ -4012,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>192</v>
@@ -4021,52 +4007,52 @@
         <v>0</v>
       </c>
       <c r="E68" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="G68" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="H68" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="I68" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="J68" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="J68" s="0" t="s">
+      <c r="K68" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="K68" s="0" t="s">
+      <c r="L68" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="L68" s="0" t="s">
+      <c r="M68" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="M68" s="0" t="s">
+      <c r="N68" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="N68" s="0" t="s">
+      <c r="O68" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="O68" s="0" t="s">
+      <c r="P68" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="P68" s="0" t="s">
+      <c r="Q68" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="Q68" s="0" t="s">
+      <c r="R68" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="R68" s="0" t="s">
+      <c r="S68" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="S68" s="0" t="s">
+      <c r="T68" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="T68" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
@@ -4074,16 +4060,16 @@
         <v>1</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="E69" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
@@ -4091,22 +4077,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="E71" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="F71" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
@@ -4114,19 +4100,19 @@
         <v>3</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D72" s="0" t="s">
+      <c r="E72" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="F72" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="73">
@@ -4134,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="74">
@@ -4148,28 +4134,28 @@
         <v>6</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D74" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="F74" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="G74" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="H74" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="I74" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
@@ -4177,19 +4163,19 @@
         <v>3</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="F75" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="77">
@@ -4197,22 +4183,22 @@
         <v>4</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="E77" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="F77" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="G77" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
@@ -4220,13 +4206,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D81" s="0" t="s">
         <v>446</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="82">
@@ -4234,13 +4220,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D82" s="0" t="s">
         <v>448</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
@@ -4251,28 +4237,28 @@
         <v>23</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D83" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="F83" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="G83" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="H83" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="I83" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="I83" s="0" t="s">
+      <c r="J83" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="84">
@@ -4283,19 +4269,19 @@
         <v>23</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>51</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="88">
@@ -4306,10 +4292,10 @@
         <v>160</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>456</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="89">
@@ -4317,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>136</v>
@@ -4331,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>133</v>
@@ -4345,13 +4331,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
@@ -4359,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>126</v>
@@ -4373,13 +4359,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D93" s="0" t="s">
         <v>462</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="94">
@@ -4387,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>152</v>
@@ -4401,13 +4387,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="96">
@@ -4415,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>155</v>
@@ -4442,13 +4428,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
